--- a/ConsoleLearnings/Docs/Joins.xlsx
+++ b/ConsoleLearnings/Docs/Joins.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,6 @@
     <t xml:space="preserve">select Name ,t1.A as A  from dbo.t0 t   right outer join dbo.t1 t1 on t.id= t1.T1ID </t>
   </si>
   <si>
-    <t xml:space="preserve">select Name ,t1.A as A  from dbo.t0 t     join dbo.t1 t1 on t.id= t1.T1ID </t>
-  </si>
-  <si>
     <t xml:space="preserve">select Name ,t1.A as A  from dbo.t0 t   full outer join dbo.t1 t1 on t.id= t1.T1ID </t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t xml:space="preserve">t21       </t>
+  </si>
+  <si>
+    <t>select Name ,t1.A as A  from dbo.t0 t     join dbo.t1 t1 on t.id= t1.T1ID (inner join)</t>
   </si>
 </sst>
 </file>
@@ -733,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,34 +755,34 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>33</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
       </c>
       <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
         <v>43</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -790,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -799,10 +799,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
         <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>36</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -811,13 +811,13 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>46</v>
-      </c>
-      <c r="N2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -825,7 +825,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -834,10 +834,10 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
         <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -846,13 +846,13 @@
         <v>4</v>
       </c>
       <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" t="s">
         <v>48</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>49</v>
-      </c>
-      <c r="N3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -860,7 +860,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -869,10 +869,10 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
         <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -881,13 +881,13 @@
         <v>5</v>
       </c>
       <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
         <v>51</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>52</v>
-      </c>
-      <c r="N4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -895,7 +895,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -904,10 +904,10 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
         <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>42</v>
       </c>
       <c r="J5">
         <v>6</v>
@@ -916,13 +916,13 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" t="s">
         <v>54</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>55</v>
-      </c>
-      <c r="N5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -930,7 +930,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J6">
         <v>7</v>
@@ -939,13 +939,13 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" t="s">
         <v>57</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>58</v>
-      </c>
-      <c r="N6" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -970,112 +970,112 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1087,7 +1087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
